--- a/otros/HOJA DE COSTOS.xlsx
+++ b/otros/HOJA DE COSTOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmamani\Documents\Latex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Burdel\otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8119D01A-1961-46AC-970F-408C20B28D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D976AE-BD6A-4A03-947B-922E62407D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="0" windowWidth="16575" windowHeight="14940" firstSheet="1" activeTab="2" xr2:uid="{258CA0B6-7EC1-41D9-B04A-4FAD5FBED102}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22860" windowHeight="14940" firstSheet="1" activeTab="2" xr2:uid="{258CA0B6-7EC1-41D9-B04A-4FAD5FBED102}"/>
   </bookViews>
   <sheets>
     <sheet name="PRESUPUESTOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="159">
   <si>
     <t>LISTA DE COMPONENTES POSIBLEMENTE NECESARIOS</t>
   </si>
@@ -495,6 +495,15 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/RunningShoeGeeks/comments/18nkc1e/list_of_all_adidas_running_shoes_on_the_official/</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pe/response-cl/ID0354.html</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pe/zapatillas-crazy-8/IG3904.html</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGST6h3yhJE</t>
   </si>
 </sst>
 </file>
@@ -793,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -868,41 +877,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,6 +901,34 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1302,17 +1312,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="48" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1330,17 +1340,17 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="2">
         <v>52.42</v>
       </c>
@@ -1359,17 +1369,17 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="2">
         <v>60.49</v>
       </c>
@@ -1378,17 +1388,17 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="42" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="2">
         <v>335</v>
       </c>
@@ -1397,60 +1407,60 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="2">
         <v>169</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
         <v>130</v>
@@ -1461,28 +1471,28 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="4">
         <f>SUM(H3:H10)</f>
         <v>616.91</v>
@@ -1493,15 +1503,15 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="5">
         <f>ROUND(H11*$L$3,2)</f>
         <v>2376.34</v>
@@ -1512,8 +1522,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
       <c r="M13">
         <f>100*1000</f>
         <v>100000</v>
@@ -1540,17 +1550,17 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45" t="s">
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1566,17 +1576,17 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="42" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="2">
         <v>52.42</v>
       </c>
@@ -1585,17 +1595,17 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="42" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="2">
         <v>60.49</v>
       </c>
@@ -1608,17 +1618,17 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="42" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="2">
         <v>346</v>
       </c>
@@ -1631,17 +1641,17 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="42" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="2">
         <v>246</v>
       </c>
@@ -1650,71 +1660,71 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="4">
         <f>SUM(H17:H24)</f>
         <v>704.91</v>
@@ -1725,15 +1735,15 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
       <c r="H26" s="5">
         <f>ROUND(H25*$L$3,2)</f>
         <v>2715.31</v>
@@ -1744,17 +1754,17 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="58"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="1" t="s">
         <v>9</v>
       </c>
@@ -1763,17 +1773,17 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51" t="s">
+      <c r="B31" s="54"/>
+      <c r="C31" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
       <c r="H31" s="2">
         <v>52.42</v>
       </c>
@@ -1782,17 +1792,17 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51" t="s">
+      <c r="B32" s="54"/>
+      <c r="C32" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="52"/>
       <c r="H32" s="2">
         <v>60.49</v>
       </c>
@@ -1801,17 +1811,17 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="53"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
       <c r="H33" s="2">
         <v>384.11</v>
       </c>
@@ -1820,17 +1830,17 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
       <c r="H34" s="2">
         <v>246</v>
       </c>
@@ -1839,71 +1849,71 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="53"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="52"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2">
         <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
       <c r="H39" s="4">
         <f>SUM(H31:H38)</f>
         <v>743.02</v>
@@ -1914,15 +1924,15 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
       <c r="H40" s="5">
         <f>ROUND(H39*$L$3,2)</f>
         <v>2862.11</v>
@@ -1949,6 +1959,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="A39:G39"/>
@@ -1965,51 +2020,6 @@
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2945,10 +2955,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DA99F3-F1E0-4566-A32C-C12092E47796}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3317,7 +3327,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="38" t="s">
         <v>135</v>
       </c>
@@ -3330,7 +3340,7 @@
         <v>106.9</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="38" t="s">
         <v>142</v>
       </c>
@@ -3338,8 +3348,26 @@
         <v>143</v>
       </c>
     </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A37" r:id="rId1" xr:uid="{C639C0C0-DE70-41AC-99FA-1412FB310CEF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>